--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -500,19 +500,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>答案: 东方航空公司的主营业务是航空运输，具体包括客运和货运业务。在客运方面，东航覆盖国内、地区和国际航线，实施关键运营指标如客座率和旅客周转量的管理，并根据市场需求调整运力投放。货运业务则包括常规的客机腹舱运输以及“客改货”业务，主要由中国货运航空有限公司经营。此外，东方航空还注重服务体验，如实施灵活的退票和改签规则，以适应旅客需求。公司战略上采用以上海为中心的“中枢网络运营”战略，建立全球覆盖的航线网络，并强调飞行安全、服务质量与市场营销的国际化。</t>
+          <t>答案: 东方航空公司的主营业务是航空运输，包括客运和货运。客运业务根据市场需求进行适时的运力调整，并采取严格的成本控制策略，以确保稳定的运营现金流。货运业务主要涉及使用客机腹舱进行的常规货物运输及在特定需求情况下进行的“客改货”业务。东航采用“中枢网络运营”战略，以上海为中心构建了覆盖国内外187个国家、1000个目的地的航线网络。此外，公司还涉及飞行安全技术、空中及地面服务、机务维修、市场营销和运行控制等业务，致力于达到接近世界水平的运营管理标准。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>东方航空公司的主营业务是提供航空运输服务。依据提供的信息，中国东方航空公司（CEA）拥有现代化的机队，是中国三大航空公司之一，总部位于上海，并有全球主要航空公司中最年轻的机队之一。它在全球设有108家境内外分支机构，提供包括值机、行李等服务，并推出了飞行常客计划“东方万里行”作为其乘客奖励计划，让乘客通过乘坐飞机、住酒店、用信用卡消费等方式赢取里程。此外，东方航空运营的航班覆盖219个目的地，遍布31个国家，每日出发班次达到2,316次，年载客量约为425万，并且拥有721架机队，显示了其在全球航空运输领域的广泛覆盖和重要影响力。</t>
+          <t>东方航空公司的主营业务是提供客运航空服务，这包括国内外的商业航班运营。特别是，东方航空成功地将中国自主研发的C919大型客机投入商业化运营，标志这家航空公司在航空工业发展中的重要里程碑。C919的商业化运营不仅推动了中国航空工业的发展，提升了中国在全球航空市场的地位，还为旅客提供了更加先进、安全、舒适的飞行体验。此外，据2024年春节假期的数据显示，东方航空执行的客运航班数量和旅客运输量都显示出显著的增长，进一步体现了其在客运航空服务领域的重要作用和影响力。</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9386138013373161</v>
+        <v>0.9552627828161974</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -541,26 +541,27 @@
  '江西金达莱环保股份有限公司主营业务为污水处理成套设备的研发、生产与销售，并为污水排放企事业单位及专业污水处理企业提供污水处理与资源化整体解决方案。3月14日， 此前计划上市创业板的泰坦科技发布公告称，董事会审议通过议案，决定将上市地点变更为上交所科创板。'
  '公司已在 2020年年度报告之 “第二节 公司简介和主要财务指标 ”之 “八 、 2020 年分季度主要财务数据 ”中补充披露截至 2021年一季度的分季度主要业务毛利 率变动情况； 公司已在 2020年年度报告之 “第四节 经营情况讨论与分析 ”之 “三 、 报告期 内主要经营情况 ”之 “（ 一 ） 主营业务分析2.收入和成本分析 .成本分析表 ”中 补充披露 CDN 业务成本的具体构成，并在“.主要销售客户及主要供应商情况 A.公司主要销售客户情况 ”中 补充披露CDN业务主要客户情况。公司已在 2020年年度报告之 “第四节 经营情况讨论与分析 ”之 “三 、 报告期 内主要经营情况 ”之 “（ 一 ） 主营业务分析2.收入和成本分析 .主营业务分行业 、 分产品 、 分地区情况 ”中 补充披露私有云及其他业务的安全屋 、 堡垒机等产 品收 入、成本构成情况。问题 2： 关于应收账款。年报显示， 2020年公司应收账款期末余额 49， 624.34万元， 占营业收入的比例为 20.21%，同比增长 91.40%。其中 2020年度按单项计提 100% 坏账准备 2,121.87万元。请公司补充披露上述应收账款的欠款方情况、与公司是 否存在关联关系、无法收回的原因、对应的业务情况以及公司是否采取措施督促 相关客户及时付款。答复： 一、对问询问题的答复 （一）坏账计提的方法公司以单项或组合的方式对应收账款的预期信用损失进行估计，计提坏账准 备。如果有客观证据表明某项应收账款已经发生信用减值，则公司在单项基础上 对该应收账款计提减值准备。（二）单项计提坏账 2020年度，公司按单项计提坏账准备的应收账款相关情况如下：单位：万元 序 号 客户名称 账面余 额 坏账准 备 客户所属 行业 业务 账龄关联 关系1年以 内 1年-2 年 2年以 上 1 上海谦问万答吧云 计算科技有限公司 573.99 573.99 互联网- 在线教育 公有云 573.99无 序 号客户名称 账面余 额 坏账准 备 客户所属 行业 业务 账龄 关联 关系1年以 内 1年-2 年 2年以 上 2 北京蓝汛通信技术 有限责任公司560.26 560.26互联网- 云分发 公有云107.30 452.96 无3'
  '巨人网络集团股份有限公司现主营业务为互联网游戏的研发和运营。2016年4月19日巨人网络借壳上市成功，原主营业务由涉外豪华游轮运营业务和旅行社业务变更为现在的网络游戏。\n'
- '（二）公司归属于母公司所有者的净利润下降主要由于：\n首先，公司主营业务毛利率较上年同期下滑约20到22个百分点，主要因素包括：（1）低毛利的业务收入占比快速提升导致的主营业务整体毛利率下降；（2）价格下调导致的主要产品或服务自身毛利率的下降；（3）服务器的升级换代使得一段时间内成本的叠加，及公司疫情期推出免费云产品引流致使效益下降。\n其次，公司为吸引人才，提高薪酬，实施员工股权激励计划，加大研发等人力成本投入，导致本期人力成本和股份支付合计较上年同期增加约1亿元。\n（三）公司归属于母公司所有者的扣除非经常性损益的净利润下降，主要系归属于母公司所有者的净利润下降所致。\n四、风险提示\n公司不存在影响本次业绩预告内容准确性的重大不确定因素。目前公司经营情况正常，生产经营未出现重大不利变化。\n五、其他说明事项\n以上预告数据仅为初步核算数据，具体准确的财务数据以公司正式披露的经审计后的2020年年度报告为准，敬请广大投资者注意投资风险。\n特此公告。\n优刻得科技股份有限公司\n董事会\n2021年1 月30日\n大家都在聊\n相关推荐\n热门视频\n热点搜索']</t>
+ '优刻得科技股份有限公司主营业务是自主研发并提供以计算、存储、网络等企业必需的基础IT产品为主的云计算服务。公司主要产品或服务有公有云、私有云、混合云、数据可信流通平台安全屋。公司2018年8月荣获“2018福布斯中国最具创新力企业”;2018年10月荣获“上海市科技小巨人企业”;2019年8月,公司获得由中国互联网协会、工业和信息化部网络安全产业发展中心颁发的2019\n年中国互联网企业100强。近一年公司股价累计下跌42.78%，同期沪深300指数下跌-22.73%。!喜欢 就请订阅我 第一时间为您推送 订阅 ## 相关新闻']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>答案: 优刻得科技股份有限公司的主营业务是自主研发并提供基于计算、存储和网络的基础IT产品的云计算服务。公司的主要产品或服务包括公有云、私有云、混合云及数据可信流通平台安全屋。此外，公司在私有云领域主要面向金融机构、大型央企、电信运营商、政府机构及零售业等提供用户定制化的云服务。公有云产品中，公司提供堡垒机等安全技术整合的产品。公司的云计算服务涵盖计算、网络、存储、数据库、云分发和数据分析等细分模块。</t>
+          <t>答案: 优刻得科技股份有限公司的主营业务是自主研发并提供基于计算、存储、网络等基础IT产品的云计算服务。公司的主要产品或服务包括公有云、私有云、混合云以及数据可信流通平台安全屋。在云计算领域，公司侧重于为不同行业与规模的企业提供定制化的私有云服务，尤其是针对金融机构、大型央企和电信运营商等。此外，公司还提供内容分发网络（CDN）服务，并涉及云主机、机柜托管等产品，通过不同业务线支撑公司的收入和增长。优刻得科技还积极拓展公有云市场，增强产品竞争力，并通过提供安全技术集成的解决方案（如堡垒机、密钥管理和权限控制）来保障数据的安全性和可信流通。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>优刻得科技股份有限公司的主营业务主要包括以下几个方面：
-1. 云计算服务：公司专注于云计算领域，包括公有云、混合云、私有云、专有云等综合性行业解决方案的提供。提供技术开发、技术转让、技术咨询和技术服务。
-2. 大数据与人工智能：涵盖大数据流通平台、AI服务平台等，为客户提供大数据服务、云软件服务等。
-3. 产品与服务：自主研发的产品包括IaaS、PaaS等云计算产品，以及“数字哨兵”系统，智能防疫一体机、混合云架构、多云管理平台UCMP等。
-4. 技术支持与解决方案：提供安全屋数据沙箱服务、人工智能公共服务平台等技术产品和平台服务。为客户提供全面的云计算、大数据和人工智能技术产品及应用场景解决方案，帮助客户提升数字化能力。
-优刻得科技股份有限公司通过这些业务和产品，满足不同场景下的业务需求，提高通行效率、减少排队拥堵等问题，推动产业数字化和数字产业化。</t>
+1. 提供综合性行业解决方案，涵盖公有云、混合云、私有云、专有云等。
+2. 技术产品和服务，包括技术开发、技术转让、技术咨询和技术服务。
+3. 自主研发的云计算产品，如IaaS、PaaS、大数据流通平台、AI服务平台等。
+4. 提供云计算服务、新兴软件及服务、大数据服务、云软件服务等。
+5. 安全屋数据沙箱服务、人工智能公共服务平台等技术产品和平台服务。
+6. 为客户提供全面的云计算、大数据和人工智能技术产品及应用场景解决方案，帮助客户提升数字化能力，推动产业数字化和数字产业化。</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9585310677615523</v>
+        <v>0.9592533952513803</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -569,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8708333333188194</v>
+        <v>0.8559523809401531</v>
       </c>
     </row>
     <row r="4">
@@ -597,30 +598,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>答案: 优刻得科技股份有限公司的未来发展规划主要集中在几个方面：首先，公司计划扩大和优化自建数据中心的建设，如优刻得青浦数据中心项目（一期），以减少对第三方IDC服务商的依赖，这将提升公司的盈利能力和市场竞争力，并增强云计算业务的资源保障。其次，公司致力于金融科技和国际化的进一步投资，积极把握战略性并购机会，并优化资本金的管理和分配。此外，公司还将推动数据流通的三个阶段：政府数据开放、企业间数据流通和跨境数据交流，从而加强数据安全技术的研发和行业解决方案的联合打造，采用“CBA”战略（云计算、大数据、人工智能），以促进传统行业的智能化转型。最后，公司计划继续在重庆及华东地区扩展数据中心，以满足日益增长的业务需求，并通过特定对象股票发行募集所需资金，同时在募集说明书中为投资者提供必要的风险提示，以准备应对市场变动和风险。</t>
+          <t>答案: 优刻得科技股份有限公司的未来发展规划涵盖多个方面，主要包括以下几个核心战略方向：
+1. **扩展云计算业务**：通过建设和推动“优刻得青浦数据中心项目（一期）”，自建数据中心以减少对第三方IDC服务商的依赖，旨在加强云计算主营业务，提升服务能力和盈利水平。
+2. **提升在公有云及混合云服务市场的竞争力**：依托在上海青浦区的土地和设施扩展，以及其他一线城市和周围地区的数据中心开发，以应对公有云和混合云业务需求的增长。
+3. **数据开放与安全流通**：分三个阶段：推广政府数据开放案例，促进企业间数据流通，实现跨境数据交流，确保数据流通的安全和合规性。
+4. **侧重技术创新与研发投入**：在人工智能、大数据领域深化技术研发，构建一站式全流程人工智能基础服务平台，支持传统行业的智能化转型。
+5. **资本市场运作**：利用股权融资降低财务成本与优化资本结构，继续在科创板上市增强资本市场的影响力并吸引投资。
+6. **关注企业的中立性**：在市场中强调其业务的中立性，以维持与不同用户的良好关系，并可能通过特殊的股权结构（如同股不同权）来更好地实现公司战略和保护投资者利益。
+通过这些措施，优刻得科技股份有限公司计划进一步扩大其业务范围和市场影响力，同时确保业务的持续性和盈利能力，符合公司及全体股东的长远利益。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>优刻得科技股份有限公司的未来发展规划主要围绕大模型技术和云计算领域的深入开发与应用展开，特别强调算法、算力和数据三大核心要素的重要性。具体发展策略包括：
-1. **国产化合作与技术自主研发**：优刻得正在与国产项目合作，推进大模型技术应用。这表明公司致力于支持并借助国产技术力量，提升自身在大数据和人工智能领域的核心竞争力，以期在AI芯片等关键技术上实现突破。
-2. **数据要素的高水平应用**：季昕华提出，通过政府引导和加强激励等措施，推动数据要素的协同优化、复用增效、融合创新，提升数据供给水平。这意味着优刻得将注重解决高质量行业数据获取难题，通过提高数据开放程度和供给质量，加速数据与AI技术的结合，进一步促进公司在智能化应用领域的发展。
-3. **安全与合作生态建设**：通过与合作伙伴如永信至诚的战略合作，优刻得不仅在大模型安全测试评估领域取得进展，还意在共同研发和训练专用的人工智能模型，以提高网络和数据安全水平，打造安全、稳健的AI应用环境。
-4. **云计算市场的深耕与拓展**：优刻得董事长兼CEO季昕华表示，云计算在新一轮人工智能发展浪潮中存在巨大机遇。公司计划深入开发云计算技术，以满足不同行业对于高性能计算和智能化应用的需求，进一步拓宽其在云计算服务市场上的影响力。
-总结来说，优刻得的未来发展规划聚焦于利用国产技术合作、加强数据要素应用、打造安全合作生态、以及深化云计算技术应用，旨在强化公司的技术领先地位，并推动其在智能化及云计算服务领域的持续增长和创新。</t>
+          <t>优刻得科技股份有限公司的未来发展规划主要聚焦于三大方向：
+1. **推动数据要素高水平应用**：季昕华提到通过政府引导和加强激励方式，推进数据要素协同优化、复用增效、融合创新，提升数据供给水平，并实现数据要素价值。强调人工智能和大数据等领域的数据协同需求，促进多元数据融合，打破数据壁垒，鼓励数据开放，提高数据供给质量，加快数据安全体系建设，从法律、技术、规则等角度提升跨境数据流动治理能力。
+2. **深入发展大模型和人工智能领域**：公司将着重发展通用大模型和垂类大模型，季昕华强调有自身数据的企业将变得格外有价值，成为“数主”。这意味着优刻得将可能专注于成为这一领域的领导者，通过与国产项目合作，提供商业服务，并期待上海的AI芯片公司在行业中脱颖而出。
+3. **扩建研发和生产基地**：未来三年内，优刻得计划完成国内四个研发制造基地的建设，总投资额超过30亿元，目标是年产值突破100亿元。这包括在上海松江建设的化学、材料研制基地和在上海奉贤新建的近100亩生命科学总部园。这些基地将进一步提升公司的研发制造能力，并推进国内高端科学仪器及关键试剂耗材的研产投功能转化平台建设。
+综上，优刻得科技股份有限公司将通过加强数据要素应用、深耕大模型及人工智能技术，以及扩建研发生产基地三方面努力，以期实现公司的持续发展和行业地位的进一步提升。</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9787828395682293</v>
+        <v>0.8728139772398591</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8240079364976364</v>
+        <v>0.8782627865863614</v>
       </c>
     </row>
   </sheetData>
